--- a/Esperienza_04/Foto/DatiLab.xlsx
+++ b/Esperienza_04/Foto/DatiLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berto\NotSync\GitHub\Laboratorio_3\Esperienza_04\Foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E98C9-C04B-4D39-B6E3-FCA3CC309FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A7519F-1B8B-4F8F-86A1-6096DEAD8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{9898CB5B-0A08-4CD7-B8E8-8E6275785345}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>integral</t>
   </si>
@@ -55,14 +55,20 @@
     <t>Ag</t>
   </si>
   <si>
-    <t>um</t>
+    <t>width [um]</t>
+  </si>
+  <si>
+    <t>integral@60keV</t>
+  </si>
+  <si>
+    <t>eate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,14 +110,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,7 +478,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio2!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1668726823238567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6968378477754626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8312312722881132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA86-4883-B44F-2210A86DA238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597402415"/>
+        <c:axId val="597392431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597402415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597392431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="597392431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597402415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1017,6 +1382,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1038,6 +1919,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD47FE3-8628-4B58-ABD5-DA8B80F87AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>640556</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2467490A-BBDC-4E53-8F40-7FCAFEF1EAC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +2310,7 @@
         <v>1.2</v>
       </c>
       <c r="D2">
-        <f>A2/B2</f>
+        <f t="shared" ref="D2:D8" si="0">A2/B2</f>
         <v>204.91666666666666</v>
       </c>
     </row>
@@ -1403,7 +2325,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D3">
-        <f>A3/B3</f>
+        <f t="shared" si="0"/>
         <v>104.87837837837837</v>
       </c>
     </row>
@@ -1418,7 +2340,7 @@
         <v>3.2</v>
       </c>
       <c r="D4">
-        <f>A4/B4</f>
+        <f t="shared" si="0"/>
         <v>93.804410911201387</v>
       </c>
     </row>
@@ -1433,7 +2355,7 @@
         <v>4.2</v>
       </c>
       <c r="D5">
-        <f>A5/B5</f>
+        <f t="shared" si="0"/>
         <v>67.734511645033606</v>
       </c>
     </row>
@@ -1448,7 +2370,7 @@
         <v>5.2</v>
       </c>
       <c r="D6">
-        <f>A6/B6</f>
+        <f t="shared" si="0"/>
         <v>35.751445086705203</v>
       </c>
     </row>
@@ -1463,7 +2385,7 @@
         <v>6.2</v>
       </c>
       <c r="D7">
-        <f>A7/B7</f>
+        <f t="shared" si="0"/>
         <v>34.950248756218905</v>
       </c>
     </row>
@@ -1478,7 +2400,7 @@
         <v>7.2</v>
       </c>
       <c r="D8">
-        <f>A8/B8</f>
+        <f t="shared" si="0"/>
         <v>23.101045296167246</v>
       </c>
     </row>
@@ -1494,31 +2416,100 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>60</v>
       </c>
+      <c r="C2">
+        <v>809</v>
+      </c>
+      <c r="D2">
+        <v>4180</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>5.1668726823238567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>652.72</v>
+      </c>
+      <c r="D3">
+        <v>2413</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">D3/C3</f>
+        <v>3.6968378477754626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>877.71</v>
+      </c>
+      <c r="D4">
+        <v>2485</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.8312312722881132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{F5F70A00-CB81-49CB-925A-D393C3835C7D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Esperienza_04/Foto/DatiLab.xlsx
+++ b/Esperienza_04/Foto/DatiLab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berto\NotSync\GitHub\Laboratorio_3\Esperienza_04\Foto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A7519F-1B8B-4F8F-86A1-6096DEAD8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA682B51-8CC2-4AD4-BD59-E289583CF517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{9898CB5B-0A08-4CD7-B8E8-8E6275785345}"/>
   </bookViews>
@@ -2470,7 +2470,7 @@
         <v>2413</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">D3/C3</f>
+        <f t="shared" ref="E3:E4" si="0">D3/C3</f>
         <v>3.6968378477754626</v>
       </c>
     </row>
